--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:03:44+00:00</t>
+    <t>2021-12-10T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="301">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1291,44 +1295,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.13671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2580,13 +2584,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2637,7 +2641,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2655,7 +2659,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2666,11 +2670,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2689,16 +2693,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2748,7 +2752,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2760,13 +2764,13 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2777,11 +2781,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2800,19 +2804,19 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -2861,7 +2865,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -2873,7 +2877,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -2890,7 +2894,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2913,13 +2917,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2970,7 +2974,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>85</v>
@@ -2999,7 +3003,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3025,10 +3029,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3079,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>85</v>
@@ -3111,7 +3115,7 @@
         <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>76</v>
@@ -3244,13 +3248,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3301,7 +3305,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3319,7 +3323,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3330,11 +3334,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3353,16 +3357,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3412,7 +3416,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3424,13 +3428,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3441,11 +3445,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3464,19 +3468,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3525,7 +3529,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3537,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3554,7 +3558,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3577,13 +3581,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3595,7 +3599,7 @@
         <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -3634,7 +3638,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>85</v>
@@ -3663,7 +3667,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3689,10 +3693,10 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3743,7 +3747,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3772,7 +3776,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3780,7 +3784,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>78</v>
@@ -3798,10 +3802,10 @@
         <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3840,7 +3844,7 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -3850,7 +3854,7 @@
         <v>147</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3862,7 +3866,7 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -3879,7 +3883,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3902,13 +3906,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3959,7 +3963,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3977,7 +3981,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3988,11 +3992,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4011,16 +4015,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4070,7 +4074,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4082,13 +4086,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4099,11 +4103,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4122,19 +4126,19 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4183,7 +4187,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4195,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4212,7 +4216,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4238,10 +4242,10 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4292,7 +4296,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4321,7 +4325,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4347,13 +4351,13 @@
         <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4403,7 +4407,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4432,7 +4436,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4455,13 +4459,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4512,7 +4516,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4541,7 +4545,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4567,10 +4571,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4621,7 +4625,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4630,7 +4634,7 @@
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4650,7 +4654,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4673,13 +4677,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4730,7 +4734,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4748,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4759,11 +4763,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4782,16 +4786,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4841,7 +4845,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4853,13 +4857,13 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4870,11 +4874,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4893,19 +4897,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -4954,7 +4958,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4966,7 +4970,7 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4983,7 +4987,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5009,13 +5013,13 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5044,10 +5048,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5065,7 +5069,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5094,7 +5098,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5117,16 +5121,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5176,7 +5180,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5205,7 +5209,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5231,10 +5235,10 @@
         <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5285,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5294,7 +5298,7 @@
         <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5337,13 +5341,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5394,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5412,7 +5416,7 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5423,11 +5427,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5446,16 +5450,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5505,7 +5509,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5517,13 +5521,13 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5534,11 +5538,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5557,19 +5561,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5618,7 +5622,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5630,7 +5634,7 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
@@ -5647,7 +5651,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5673,10 +5677,10 @@
         <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5706,10 +5710,10 @@
         <v>124</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -5727,7 +5731,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>85</v>
@@ -5756,7 +5760,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5782,13 +5786,13 @@
         <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5838,7 +5842,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>85</v>
@@ -5867,7 +5871,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5890,13 +5894,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5947,7 +5951,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5980,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6002,10 +6006,10 @@
         <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6056,7 +6060,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6085,7 +6089,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6108,13 +6112,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6165,7 +6169,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6194,7 +6198,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6217,13 +6221,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6274,7 +6278,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6307,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6329,10 +6333,10 @@
         <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6383,7 +6387,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6392,7 +6396,7 @@
         <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
@@ -6412,7 +6416,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6435,13 +6439,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6492,7 +6496,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6510,7 +6514,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6521,11 +6525,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6544,16 +6548,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6603,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6615,13 +6619,13 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6632,11 +6636,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6655,19 +6659,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -6716,7 +6720,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6728,7 +6732,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -6745,7 +6749,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6768,13 +6772,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6825,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>85</v>
@@ -6854,7 +6858,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6880,10 +6884,10 @@
         <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6934,7 +6938,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -6963,7 +6967,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6986,16 +6990,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7045,7 +7049,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7074,7 +7078,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7100,13 +7104,13 @@
         <v>129</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7156,7 +7160,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7185,7 +7189,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7208,16 +7212,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7267,7 +7271,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7296,10 +7300,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7324,10 +7328,10 @@
         <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7378,7 +7382,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7390,7 +7394,7 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -7407,7 +7411,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7430,13 +7434,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7487,7 +7491,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7505,7 +7509,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7516,11 +7520,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7539,16 +7543,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7598,7 +7602,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -7610,13 +7614,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7627,11 +7631,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7650,19 +7654,19 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7711,7 +7715,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7723,7 +7727,7 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -7740,7 +7744,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7766,10 +7770,10 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7820,7 +7824,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -7849,7 +7853,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7875,13 +7879,13 @@
         <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7931,7 +7935,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -7960,7 +7964,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7983,16 +7987,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8042,7 +8046,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8054,16 +8058,16 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8071,7 +8075,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8097,10 +8101,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8151,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8160,7 +8164,7 @@
         <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8180,7 +8184,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8203,13 +8207,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8260,7 +8264,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8278,7 +8282,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8289,11 +8293,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8312,16 +8316,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8371,7 +8375,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8383,13 +8387,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8400,11 +8404,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8423,19 +8427,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8484,7 +8488,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8496,7 +8500,7 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8513,7 +8517,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8539,13 +8543,13 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8574,10 +8578,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -8595,7 +8599,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -8624,7 +8628,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8647,16 +8651,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8706,7 +8710,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8739,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8761,10 +8765,10 @@
         <v>142</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8815,7 +8819,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8828,7 @@
         <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>96</v>
@@ -8844,7 +8848,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8867,13 +8871,13 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8924,7 +8928,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -8942,7 +8946,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -8953,11 +8957,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8976,16 +8980,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9035,7 +9039,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9047,13 +9051,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9064,11 +9068,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9087,19 +9091,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -9148,7 +9152,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9160,7 +9164,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9177,7 +9181,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9203,10 +9207,10 @@
         <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9236,10 +9240,10 @@
         <v>124</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -9257,7 +9261,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>85</v>
@@ -9286,7 +9290,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9312,13 +9316,13 @@
         <v>98</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9368,7 +9372,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>85</v>
@@ -9397,7 +9401,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9420,13 +9424,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9477,7 +9481,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9506,7 +9510,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9532,10 +9536,10 @@
         <v>129</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9586,7 +9590,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -9615,7 +9619,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9638,13 +9642,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9695,7 +9699,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -9724,7 +9728,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9747,13 +9751,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9804,7 +9808,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -9833,7 +9837,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9859,10 +9863,10 @@
         <v>142</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9913,7 +9917,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -9922,7 +9926,7 @@
         <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>96</v>
@@ -9942,7 +9946,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9965,13 +9969,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10022,7 +10026,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10040,7 +10044,7 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10051,11 +10055,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10074,16 +10078,16 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10133,7 +10137,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10145,13 +10149,13 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10162,11 +10166,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10185,19 +10189,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -10246,7 +10250,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10258,7 +10262,7 @@
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -10275,7 +10279,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10298,13 +10302,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10355,7 +10359,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>85</v>
@@ -10384,7 +10388,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10410,10 +10414,10 @@
         <v>98</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10464,7 +10468,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10493,7 +10497,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10516,16 +10520,16 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10575,7 +10579,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -10604,7 +10608,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10630,13 +10634,13 @@
         <v>129</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10686,7 +10690,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -10715,7 +10719,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10738,16 +10742,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10797,7 +10801,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -10826,10 +10830,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>76</v>
@@ -10854,10 +10858,10 @@
         <v>142</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10908,7 +10912,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -10920,7 +10924,7 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
@@ -10937,7 +10941,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10960,13 +10964,13 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11017,7 +11021,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11035,7 +11039,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11046,11 +11050,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11069,16 +11073,16 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11128,7 +11132,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11140,13 +11144,13 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11157,11 +11161,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11180,19 +11184,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -11241,7 +11245,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11253,7 +11257,7 @@
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -11270,7 +11274,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11296,10 +11300,10 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11350,7 +11354,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11379,7 +11383,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11405,13 +11409,13 @@
         <v>98</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11461,7 +11465,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -11490,11 +11494,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11513,13 +11517,13 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11570,7 +11574,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -11582,16 +11586,16 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -11599,7 +11603,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11625,10 +11629,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11679,7 +11683,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -11688,7 +11692,7 @@
         <v>85</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11708,7 +11712,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11731,13 +11735,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11788,7 +11792,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -11806,7 +11810,7 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>76</v>
@@ -11817,11 +11821,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11840,16 +11844,16 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11899,7 +11903,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -11911,13 +11915,13 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -11928,11 +11932,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11951,19 +11955,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -12012,7 +12016,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -12024,7 +12028,7 @@
         <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -12041,7 +12045,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12067,13 +12071,13 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12102,10 +12106,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -12123,7 +12127,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -12152,7 +12156,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12175,16 +12179,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12234,7 +12238,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -12263,7 +12267,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12289,10 +12293,10 @@
         <v>142</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12343,7 +12347,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -12352,7 +12356,7 @@
         <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>96</v>
@@ -12372,7 +12376,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12395,13 +12399,13 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12452,7 +12456,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12474,7 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>76</v>
@@ -12481,11 +12485,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12504,16 +12508,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -12563,7 +12567,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -12575,13 +12579,13 @@
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>76</v>
@@ -12592,11 +12596,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12615,19 +12619,19 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -12676,7 +12680,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -12688,7 +12692,7 @@
         <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
@@ -12705,7 +12709,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12731,10 +12735,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12764,10 +12768,10 @@
         <v>124</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -12785,7 +12789,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>85</v>
@@ -12814,7 +12818,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12840,13 +12844,13 @@
         <v>98</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -12896,7 +12900,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>85</v>
@@ -12925,7 +12929,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12948,13 +12952,13 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13005,7 +13009,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -13034,7 +13038,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13060,10 +13064,10 @@
         <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13114,7 +13118,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -13143,7 +13147,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13166,13 +13170,13 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13223,7 +13227,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -13252,7 +13256,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13275,13 +13279,13 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13332,7 +13336,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -13361,7 +13365,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13387,10 +13391,10 @@
         <v>142</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13441,7 +13445,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -13450,7 +13454,7 @@
         <v>85</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>96</v>
@@ -13470,7 +13474,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13493,13 +13497,13 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13550,7 +13554,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -13568,7 +13572,7 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>76</v>
@@ -13579,11 +13583,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13602,16 +13606,16 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13661,7 +13665,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -13673,13 +13677,13 @@
         <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>76</v>
@@ -13690,11 +13694,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13713,19 +13717,19 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -13774,7 +13778,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -13786,7 +13790,7 @@
         <v>76</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>76</v>
@@ -13803,7 +13807,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13826,13 +13830,13 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13883,7 +13887,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>85</v>
@@ -13912,7 +13916,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13938,10 +13942,10 @@
         <v>98</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -13992,7 +13996,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -14021,7 +14025,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14044,16 +14048,16 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14103,7 +14107,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -14132,7 +14136,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14158,13 +14162,13 @@
         <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14214,7 +14218,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -14243,7 +14247,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14266,16 +14270,16 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14325,7 +14329,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -14354,10 +14358,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -14382,10 +14386,10 @@
         <v>142</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14436,7 +14440,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -14448,7 +14452,7 @@
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
@@ -14465,7 +14469,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14488,13 +14492,13 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14545,7 +14549,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -14563,7 +14567,7 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>76</v>
@@ -14574,11 +14578,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14597,16 +14601,16 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -14656,7 +14660,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -14668,13 +14672,13 @@
         <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>76</v>
@@ -14685,11 +14689,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14708,19 +14712,19 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -14769,7 +14773,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -14781,7 +14785,7 @@
         <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>76</v>
@@ -14798,7 +14802,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14824,10 +14828,10 @@
         <v>76</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -14878,7 +14882,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -14907,7 +14911,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14933,13 +14937,13 @@
         <v>98</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14989,7 +14993,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -15018,7 +15022,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15041,13 +15045,13 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15098,7 +15102,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -15110,13 +15114,13 @@
         <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>76</v>
@@ -15127,7 +15131,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15153,10 +15157,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15207,7 +15211,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -15216,7 +15220,7 @@
         <v>85</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15236,7 +15240,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15259,13 +15263,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15316,7 +15320,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -15334,7 +15338,7 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>76</v>
@@ -15345,11 +15349,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15368,16 +15372,16 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15427,7 +15431,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -15439,13 +15443,13 @@
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -15456,11 +15460,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15479,19 +15483,19 @@
         <v>79</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -15540,7 +15544,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -15552,7 +15556,7 @@
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
@@ -15569,7 +15573,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15595,13 +15599,13 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -15630,10 +15634,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -15651,7 +15655,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -15680,7 +15684,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15703,16 +15707,16 @@
         <v>79</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15762,7 +15766,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -15791,7 +15795,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15817,10 +15821,10 @@
         <v>142</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15871,7 +15875,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -15880,7 +15884,7 @@
         <v>85</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>96</v>
@@ -15900,7 +15904,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15923,13 +15927,13 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15980,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -15998,7 +16002,7 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>76</v>
@@ -16009,11 +16013,11 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16032,16 +16036,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16091,7 +16095,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -16103,13 +16107,13 @@
         <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>76</v>
@@ -16120,11 +16124,11 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16143,19 +16147,19 @@
         <v>79</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -16204,7 +16208,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -16216,7 +16220,7 @@
         <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>76</v>
@@ -16233,7 +16237,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16259,10 +16263,10 @@
         <v>104</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16292,10 +16296,10 @@
         <v>124</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -16313,7 +16317,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>85</v>
@@ -16342,7 +16346,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16368,13 +16372,13 @@
         <v>98</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -16424,7 +16428,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>85</v>
@@ -16453,7 +16457,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16476,13 +16480,13 @@
         <v>79</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16533,7 +16537,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -16562,7 +16566,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16588,10 +16592,10 @@
         <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -16642,7 +16646,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -16671,7 +16675,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16694,13 +16698,13 @@
         <v>79</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16751,7 +16755,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -16780,7 +16784,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16803,13 +16807,13 @@
         <v>79</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16860,7 +16864,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -16889,7 +16893,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16915,10 +16919,10 @@
         <v>142</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -16969,7 +16973,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -16978,7 +16982,7 @@
         <v>85</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>96</v>
@@ -16998,7 +17002,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17021,13 +17025,13 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17078,7 +17082,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -17096,7 +17100,7 @@
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>76</v>
@@ -17107,11 +17111,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17130,16 +17134,16 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17189,7 +17193,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -17201,13 +17205,13 @@
         <v>76</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>76</v>
@@ -17218,11 +17222,11 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17241,19 +17245,19 @@
         <v>79</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -17302,7 +17306,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -17314,7 +17318,7 @@
         <v>76</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>76</v>
@@ -17331,7 +17335,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17354,13 +17358,13 @@
         <v>79</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17411,7 +17415,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>85</v>
@@ -17440,7 +17444,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17466,10 +17470,10 @@
         <v>98</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17520,7 +17524,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
@@ -17549,7 +17553,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17572,16 +17576,16 @@
         <v>79</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17631,7 +17635,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -17660,7 +17664,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17686,13 +17690,13 @@
         <v>129</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -17742,7 +17746,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -17771,7 +17775,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17794,16 +17798,16 @@
         <v>79</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17853,7 +17857,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -17882,10 +17886,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>76</v>
@@ -17910,10 +17914,10 @@
         <v>142</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17964,7 +17968,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
@@ -17976,7 +17980,7 @@
         <v>76</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>76</v>
@@ -17993,7 +17997,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18016,13 +18020,13 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18073,7 +18077,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -18091,7 +18095,7 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>76</v>
@@ -18102,11 +18106,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -18125,16 +18129,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -18184,7 +18188,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -18196,13 +18200,13 @@
         <v>76</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>76</v>
@@ -18213,11 +18217,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18236,19 +18240,19 @@
         <v>79</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -18297,7 +18301,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -18309,7 +18313,7 @@
         <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>76</v>
@@ -18326,7 +18330,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18352,10 +18356,10 @@
         <v>76</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18406,7 +18410,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -18435,7 +18439,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18461,13 +18465,13 @@
         <v>98</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18517,7 +18521,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -18546,7 +18550,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18569,16 +18573,16 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18628,7 +18632,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
@@ -18640,16 +18644,16 @@
         <v>76</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -18657,7 +18661,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18683,10 +18687,10 @@
         <v>142</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18737,7 +18741,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -18746,7 +18750,7 @@
         <v>85</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -18766,7 +18770,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18789,13 +18793,13 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -18846,7 +18850,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
@@ -18864,7 +18868,7 @@
         <v>76</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>76</v>
@@ -18875,11 +18879,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -18898,16 +18902,16 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -18957,7 +18961,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -18969,13 +18973,13 @@
         <v>76</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>76</v>
@@ -18986,11 +18990,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19009,19 +19013,19 @@
         <v>79</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -19070,7 +19074,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -19082,7 +19086,7 @@
         <v>76</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>76</v>
@@ -19099,7 +19103,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19125,13 +19129,13 @@
         <v>104</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -19160,10 +19164,10 @@
         <v>124</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>76</v>
@@ -19181,7 +19185,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -19210,7 +19214,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19233,16 +19237,16 @@
         <v>79</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19292,7 +19296,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -19321,7 +19325,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19347,10 +19351,10 @@
         <v>142</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19401,7 +19405,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -19410,7 +19414,7 @@
         <v>85</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>96</v>
@@ -19430,7 +19434,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19453,13 +19457,13 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19510,7 +19514,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -19528,7 +19532,7 @@
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>76</v>
@@ -19539,11 +19543,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -19562,16 +19566,16 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -19621,7 +19625,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -19633,13 +19637,13 @@
         <v>76</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>76</v>
@@ -19650,11 +19654,11 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -19673,19 +19677,19 @@
         <v>79</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -19734,7 +19738,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -19746,7 +19750,7 @@
         <v>76</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>76</v>
@@ -19763,7 +19767,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19789,10 +19793,10 @@
         <v>104</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19822,10 +19826,10 @@
         <v>124</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>76</v>
@@ -19843,7 +19847,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>85</v>
@@ -19872,7 +19876,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19898,13 +19902,13 @@
         <v>98</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -19954,7 +19958,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>85</v>
@@ -19983,7 +19987,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20006,13 +20010,13 @@
         <v>79</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20063,7 +20067,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -20092,7 +20096,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20118,10 +20122,10 @@
         <v>129</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -20172,7 +20176,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -20201,7 +20205,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20224,13 +20228,13 @@
         <v>79</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20281,7 +20285,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>77</v>
@@ -20310,7 +20314,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20333,13 +20337,13 @@
         <v>79</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20390,7 +20394,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>77</v>
@@ -20419,7 +20423,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20445,10 +20449,10 @@
         <v>142</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -20499,7 +20503,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -20508,7 +20512,7 @@
         <v>85</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>96</v>
@@ -20528,7 +20532,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20551,13 +20555,13 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -20608,7 +20612,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>77</v>
@@ -20626,7 +20630,7 @@
         <v>76</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>76</v>
@@ -20637,11 +20641,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -20660,16 +20664,16 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20719,7 +20723,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>77</v>
@@ -20731,13 +20735,13 @@
         <v>76</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>76</v>
@@ -20748,11 +20752,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -20771,19 +20775,19 @@
         <v>79</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -20832,7 +20836,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
@@ -20844,7 +20848,7 @@
         <v>76</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>76</v>
@@ -20861,7 +20865,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -20884,13 +20888,13 @@
         <v>79</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -20941,7 +20945,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>85</v>
@@ -20970,7 +20974,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -20996,10 +21000,10 @@
         <v>98</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21050,7 +21054,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>77</v>
@@ -21079,7 +21083,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21102,16 +21106,16 @@
         <v>79</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -21161,7 +21165,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>77</v>
@@ -21190,7 +21194,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21216,13 +21220,13 @@
         <v>129</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -21272,7 +21276,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
@@ -21301,7 +21305,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21324,16 +21328,16 @@
         <v>79</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -21383,7 +21387,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>77</v>
@@ -21412,7 +21416,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21435,19 +21439,19 @@
         <v>79</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>76</v>
@@ -21496,7 +21500,7 @@
         <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10924,7 +10924,7 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A [DDCC Document](StructureDefinition-DDCCDocument.html) is a document bundle containing the DDCC.
-</t>
+    <t>A [DDCC Document](StructureDefinition-DDCCDocument.html) is a document bundle containing the DDCC.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
